--- a/DuleCard/配置表/角色配置表.xlsx
+++ b/DuleCard/配置表/角色配置表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itemIng\DueCard\SuperCard\配置表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="11595"/>
+    <workbookView windowWidth="24855" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="ActorCfg" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="143">
   <si>
     <t>a</t>
   </si>
@@ -63,6 +58,9 @@
   </si>
   <si>
     <t>被动技能的描述效果</t>
+  </si>
+  <si>
+    <t>角色是否投入使用</t>
   </si>
   <si>
     <t>ID</t>
@@ -122,6 +120,12 @@
     <t>Skill#[]</t>
   </si>
   <si>
+    <t>Buff#[]</t>
+  </si>
+  <si>
+    <t>IsUsed</t>
+  </si>
+  <si>
     <t>天伶雪</t>
   </si>
   <si>
@@ -158,7 +162,7 @@
     <t>Texture/Hero/hero2</t>
   </si>
   <si>
-    <t>雪山派佼佼者，奉师命与妹妹下山，助大周抵御蒙人入侵，在前往襄阳城期间，遇巴图鲁，使计使巴图鲁愤怒对其攻击，在兴奋要应对时，巴图鲁被妹妹一剑击败</t>
+    <t>雪山派佼佼者，奉师命与妹妹下山，助大周抵御蒙人入侵，在前往襄阳城期间，遇巴图鲁，计使巴图鲁怒对其攻，在兴奋应对时，巴图鲁被妹妹一剑击败</t>
   </si>
   <si>
     <t>天造之才</t>
@@ -176,7 +180,7 @@
     <t>Texture/Hero/hero3</t>
   </si>
   <si>
-    <t>丐帮前任帮主，在帮助朝廷转运粮草时，被奸人设计陷害，使粮草尽毁，为不牵连帮众脱离丐帮，在逃亡中遇追捕他的虚空竹，无奈被迫应战</t>
+    <t>丐帮前任帮主，在帮助朝廷转运粮草时，被奸人设计陷害，粮草尽毁，为不牵连帮众，脱离丐帮，在逃亡中遇追捕他的虚空竹，被迫应战</t>
   </si>
   <si>
     <t>武学奇才</t>
@@ -194,7 +198,7 @@
     <t>Texture/Hero/hero4</t>
   </si>
   <si>
-    <t>神秘家族单传弟子，出门历练中遇到逃亡的乔高峰和与乔争斗的虚空竹，出手打断两人争斗，询问情况后判定乔高峰被奸人所害，虚空竹被其说动，答应为乔高峰洗刷冤屈</t>
+    <t>神秘家族单传弟子，出门历练途中，遇到逃亡的乔高峰和与乔争斗的虚空竹，出手打断两人争斗，询问情况后判定乔高峰被奸人所害，随后虚空竹被其说动，答应为乔高峰洗刷冤屈</t>
   </si>
   <si>
     <t>家传秘典</t>
@@ -212,7 +216,7 @@
     <t>Texture/Hero/hero5</t>
   </si>
   <si>
-    <t>少林觉近大师弟子，奉师命下山捉拿贼人乔高峰，在苦风林中发现乔高峰后，当即捉拿，在争斗中遇段小誉劝解，答应为乔洗刷冤屈，前往襄阳城时，三人趣味相投，结为异性兄弟</t>
+    <t>少林觉近大师弟子，奉师命下山捉拿贼人乔高峰，在苦风林中发现乔高峰，在争斗中被路过的段小誉劝解，答应为乔洗刷冤屈，前往襄阳城时，三人趣味相投，结为异性兄弟</t>
   </si>
   <si>
     <t>洪福齐天</t>
@@ -230,7 +234,7 @@
     <t>Texture/Hero/hero6</t>
   </si>
   <si>
-    <t>北寒部落大贝勒，行事野蛮，受到大辽可汗命令，领部落兵前往拦截蒙军入侵，战败被俘，逃跑后，进入周境抢夺周民包裹，遇到天天兄妹</t>
+    <t>北寒部落大贝勒，行事野蛮，受到大辽可汗命令，领部落兵前往拦截蒙军西路军，战败被俘，在蒙人放松警惕后逃跑，进入周境因饥渴难耐，抢夺流亡的周民包裹，遇天天兄妹</t>
   </si>
   <si>
     <t>勇士之证</t>
@@ -248,7 +252,7 @@
     <t>Texture/Hero/hero7</t>
   </si>
   <si>
-    <t>草原部落第一勇士，跟随蒙军入侵中原，所部与辽军对战时身先士卒，辽军被打的节节败退，后因勇武被蒙大汗调往蒙周战场，襄阳城一役，领兵冲锋高耸城墙，身中数箭重伤</t>
+    <t>草原部落第一勇士，跟随蒙军入侵中原，所部与辽军对战时身先士卒，辽军节节败退，因勇武被蒙大汗调往蒙周战场，襄阳城一役，领兵冲锋高耸城墙，身中数箭而重伤</t>
   </si>
   <si>
     <t>体格健壮</t>
@@ -323,7 +327,7 @@
     <t>Texture/Hero/hero11</t>
   </si>
   <si>
-    <t>江南诗书世家谢家大小姐，温文尔雅，博文广知，劝说父亲“先有国，后有家，国在家先”，成功促使谢家联合江南各世家向襄阳城捐献了一大批粮草</t>
+    <t>江南诗书世家谢家大小姐，温文尔雅，博文广知，劝说父亲“先有国，后有家，国在家先”，谢家家主被其说动，联合江南各世家向襄阳城捐献了一大批粮草</t>
   </si>
   <si>
     <t>博学</t>
@@ -341,7 +345,7 @@
     <t>Texture/Hero/hero12</t>
   </si>
   <si>
-    <t>大周皇后，在蒙军入侵皇帝却因病无法理事时，帮助年幼的太子，总理国家大事，因为被奸人蒙蔽恼怒乔高峰焚毁救援襄阳城的粮草，下达了海捕文书</t>
+    <t>大周皇后，在蒙军入侵，皇帝因病无法理事时，协助年幼的太子，总理国家大事，因为被奸人蒙蔽，恼怒乔高峰焚毁救援襄阳城的粮草，下达了海捕文书</t>
   </si>
   <si>
     <t>金纱衣</t>
@@ -359,7 +363,7 @@
     <t>Texture/Hero/hero13</t>
   </si>
   <si>
-    <t>太上清虚道的内门弟子，不问世事，奉师命入世寻找道中失窃珍宝鲁班秘法，经过追寻最终将目光锁定向襄阳城</t>
+    <t>太上清虚道的内门弟子，不问世事，奉师命入世，寻找道中失窃珍宝《鲁班秘法》，经过追寻将目光锁向襄阳城</t>
   </si>
   <si>
     <t>太上清虚道法</t>
@@ -377,7 +381,7 @@
     <t>Texture/Hero/hero14</t>
   </si>
   <si>
-    <t>武当派掌门座下首位弟子，下山调查师叔被重伤事件中遭遇西方神秘炼金师，虽战而胜之，却被其逃走，但在持续追查中却发现惊天阴谋</t>
+    <t>武当派掌门座下首位弟子，下山调查师叔被重伤事件中，遭遇西方神秘炼金师，虽战而胜之，却被其逃走，在持续追查中发现西方世界的惊天阴谋</t>
   </si>
   <si>
     <t>多面手</t>
@@ -395,7 +399,7 @@
     <t>Texture/Hero/hero15</t>
   </si>
   <si>
-    <t>昆仑派外门弟子，在采药途中掉入山谷，苏醒后在山洞中获得神秘武功秘籍，在山谷中偷偷练习，因急于求成，导致真气逆流，被路过的柳依依所救，感念恩德，此后一直暗中跟随保护</t>
+    <t>昆仑派外门弟子，在采药途中掉入山谷，苏醒后在山洞中获得神秘武功秘籍，在山谷偷偷练习中急于求成，导致真气逆流，幸被路过的柳依依所救，感念其恩德，此后暗中跟随保护</t>
   </si>
   <si>
     <t>后招</t>
@@ -442,16 +446,18 @@
   <si>
     <t>Texture/Icon/ActorSKill/hero17</t>
   </si>
-  <si>
-    <t>Buff#[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -461,7 +467,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -470,18 +475,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,8 +636,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -503,107 +831,394 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -861,60 +1476,68 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:XFD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="79.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="55.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="16.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="3" customWidth="1"/>
     <col min="8" max="9" width="10.875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="9" style="3"/>
+    <col min="10" max="11" width="9" style="3" customWidth="1"/>
     <col min="12" max="13" width="12.875" style="3" customWidth="1"/>
     <col min="14" max="15" width="15.375" style="3" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="17" width="43.875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="27.5" style="6" customWidth="1"/>
+    <col min="17" max="17" width="43.875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="31.875" style="4" customWidth="1"/>
     <col min="19" max="19" width="11" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9" style="5" customWidth="1"/>
+    <col min="22" max="22" width="12.875" style="5" hidden="1"/>
+    <col min="23" max="16384" width="0" style="5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:248">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -1144,29 +1767,29 @@
       <c r="IM1" s="1"/>
       <c r="IN1" s="1"/>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:248">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="1"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -1396,29 +2019,29 @@
       <c r="IM2" s="1"/>
       <c r="IN2" s="1"/>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:248">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="1"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -1648,56 +2271,58 @@
       <c r="IM3" s="1"/>
       <c r="IN3" s="1"/>
     </row>
-    <row r="4" spans="1:16384" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+    <row r="4" ht="40.5" customHeight="1" spans="1:248">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -1926,89 +2551,92 @@
       <c r="IM4" s="1"/>
       <c r="IN4" s="1"/>
     </row>
-    <row r="5" spans="1:16384" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="16" t="s">
+    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:21">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="I5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="J5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="L5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="M5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="N5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="O5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="P5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="Q5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="R5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="26" t="s">
-        <v>140</v>
+      <c r="S5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:21">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
+      <c r="E6" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>38</v>
+      <c r="G6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H6" s="3">
         <v>30</v>
@@ -2035,36 +2663,39 @@
         <v>2</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>40</v>
+      <c r="Q6" s="4" t="s">
+        <v>43</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>41</v>
+      <c r="R6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="7" ht="42.75" spans="1:21">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>45</v>
+      <c r="E7" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>38</v>
+      <c r="G7" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H7" s="3">
         <v>30</v>
@@ -2091,33 +2722,36 @@
         <v>2</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
-      <c r="Q7" s="6" t="s">
-        <v>47</v>
+      <c r="Q7" s="4" t="s">
+        <v>50</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>48</v>
+      <c r="R7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="8" ht="42.75" spans="1:21">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>51</v>
+      <c r="E8" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>38</v>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H8" s="3">
         <v>30</v>
@@ -2144,33 +2778,36 @@
         <v>2</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
-      <c r="Q8" s="6" t="s">
-        <v>53</v>
+      <c r="Q8" s="4" t="s">
+        <v>56</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>54</v>
+      <c r="R8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="42.75" spans="1:21">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>57</v>
+      <c r="E9" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>38</v>
+      <c r="G9" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H9" s="3">
         <v>30</v>
@@ -2197,33 +2834,39 @@
         <v>2</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
-      <c r="Q9" s="6" t="s">
-        <v>59</v>
+      <c r="Q9" s="4" t="s">
+        <v>62</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>60</v>
+      <c r="R9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="25">
+        <v>1000</v>
+      </c>
+      <c r="U9" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" spans="1:21">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>63</v>
+      <c r="E10" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>38</v>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H10" s="3">
         <v>30</v>
@@ -2250,33 +2893,39 @@
         <v>2</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
-      <c r="Q10" s="6" t="s">
-        <v>65</v>
+      <c r="Q10" s="4" t="s">
+        <v>68</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>66</v>
+      <c r="R10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" s="25">
+        <v>1001</v>
+      </c>
+      <c r="U10" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="11" ht="42.75" spans="1:21">
       <c r="A11" s="3">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>69</v>
+      <c r="E11" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>38</v>
+      <c r="G11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H11" s="3">
         <v>30</v>
@@ -2303,33 +2952,39 @@
         <v>2</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
-      <c r="Q11" s="6" t="s">
-        <v>71</v>
+      <c r="Q11" s="4" t="s">
+        <v>74</v>
       </c>
-      <c r="R11" s="6" t="s">
-        <v>72</v>
+      <c r="R11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" s="25">
+        <v>1002</v>
+      </c>
+      <c r="U11" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="12" ht="42.75" spans="1:21">
       <c r="A12" s="3">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>75</v>
+      <c r="E12" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>38</v>
+      <c r="G12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H12" s="3">
         <v>30</v>
@@ -2356,34 +3011,40 @@
         <v>2</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
-      <c r="Q12" s="6" t="s">
-        <v>77</v>
+      <c r="Q12" s="4" t="s">
+        <v>80</v>
       </c>
-      <c r="R12" s="6" t="s">
-        <v>78</v>
+      <c r="R12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T12" s="25">
+        <v>1003</v>
+      </c>
+      <c r="U12" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="28.5" spans="1:16384">
       <c r="A13" s="3">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>81</v>
+      <c r="E13" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>83</v>
+      <c r="G13" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="H13" s="3">
         <v>25</v>
@@ -2410,15 +3071,19 @@
         <v>2</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
-      <c r="Q13" s="6" t="s">
-        <v>85</v>
+      <c r="Q13" s="4" t="s">
+        <v>88</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="T13" s="3">
+        <v>1004</v>
+      </c>
+      <c r="U13" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -18783,25 +19448,25 @@
       <c r="XFC13" s="3"/>
       <c r="XFD13" s="3"/>
     </row>
-    <row r="14" spans="1:16384" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="28.5" spans="1:16384">
       <c r="A14" s="3">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>88</v>
+      <c r="E14" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>90</v>
+      <c r="G14" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H14" s="3">
         <v>30</v>
@@ -18828,15 +19493,19 @@
         <v>2</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
-      <c r="Q14" s="6" t="s">
-        <v>92</v>
+      <c r="Q14" s="4" t="s">
+        <v>95</v>
       </c>
-      <c r="R14" s="6"/>
+      <c r="R14" s="4"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="T14" s="3">
+        <v>1005</v>
+      </c>
+      <c r="U14" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -35201,25 +35870,25 @@
       <c r="XFC14" s="3"/>
       <c r="XFD14" s="3"/>
     </row>
-    <row r="15" spans="1:16384" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>95</v>
+      <c r="E15" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>90</v>
+      <c r="G15" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H15" s="3">
         <v>30</v>
@@ -35246,15 +35915,17 @@
         <v>2</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
-      <c r="Q15" s="6" t="s">
-        <v>97</v>
+      <c r="Q15" s="4" t="s">
+        <v>100</v>
       </c>
-      <c r="R15" s="6"/>
+      <c r="R15" s="4"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="U15" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -51619,24 +52290,24 @@
       <c r="XFC15" s="3"/>
       <c r="XFD15" s="3"/>
     </row>
-    <row r="16" spans="1:16384" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="16" ht="42.75" spans="1:21">
       <c r="A16" s="3">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>99</v>
+      <c r="D16" s="16" t="s">
+        <v>102</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>100</v>
+      <c r="E16" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>38</v>
+      <c r="G16" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H16" s="3">
         <v>30</v>
@@ -51663,33 +52334,36 @@
         <v>3</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
-      <c r="Q16" s="6" t="s">
-        <v>102</v>
+      <c r="Q16" s="4" t="s">
+        <v>105</v>
       </c>
-      <c r="R16" s="6" t="s">
-        <v>103</v>
+      <c r="R16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U16" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="17" ht="42.75" spans="1:21">
       <c r="A17" s="3">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>105</v>
+      <c r="D17" s="16" t="s">
+        <v>108</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>106</v>
+      <c r="E17" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>38</v>
+      <c r="G17" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H17" s="3">
         <v>35</v>
@@ -51716,33 +52390,36 @@
         <v>2</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
-      <c r="Q17" s="6" t="s">
-        <v>108</v>
+      <c r="Q17" s="4" t="s">
+        <v>111</v>
       </c>
-      <c r="R17" s="6" t="s">
-        <v>109</v>
+      <c r="R17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="U17" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="18" ht="28.5" spans="1:21">
       <c r="A18" s="3">
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>111</v>
+      <c r="D18" s="16" t="s">
+        <v>114</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>112</v>
+      <c r="E18" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>38</v>
+      <c r="G18" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H18" s="3">
         <v>30</v>
@@ -51769,33 +52446,39 @@
         <v>2</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
-      <c r="Q18" s="6" t="s">
-        <v>114</v>
+      <c r="Q18" s="4" t="s">
+        <v>117</v>
       </c>
-      <c r="R18" s="6" t="s">
-        <v>115</v>
+      <c r="R18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1007</v>
+      </c>
+      <c r="U18" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="19" ht="42.75" spans="1:21">
       <c r="A19" s="3">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>117</v>
+      <c r="D19" s="16" t="s">
+        <v>120</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>118</v>
+      <c r="E19" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>38</v>
+      <c r="G19" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H19" s="3">
         <v>30</v>
@@ -51815,40 +52498,46 @@
       <c r="M19" s="3">
         <v>8</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="16">
         <v>2</v>
       </c>
       <c r="O19" s="3">
         <v>2</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
-      <c r="Q19" s="6" t="s">
-        <v>120</v>
+      <c r="Q19" s="4" t="s">
+        <v>123</v>
       </c>
-      <c r="R19" s="6" t="s">
-        <v>121</v>
+      <c r="R19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1008</v>
+      </c>
+      <c r="U19" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="20" ht="42.75" spans="1:21">
       <c r="A20" s="3">
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>123</v>
+      <c r="D20" s="16" t="s">
+        <v>126</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>124</v>
+      <c r="E20" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>38</v>
+      <c r="G20" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H20" s="3">
         <v>30</v>
@@ -51868,40 +52557,43 @@
       <c r="M20" s="3">
         <v>10</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="16">
         <v>2</v>
       </c>
       <c r="O20" s="3">
         <v>2</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
-      <c r="Q20" s="6" t="s">
-        <v>126</v>
+      <c r="Q20" s="4" t="s">
+        <v>129</v>
       </c>
-      <c r="R20" s="6" t="s">
-        <v>127</v>
+      <c r="R20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="U20" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="21" ht="28.5" spans="1:21">
       <c r="A21" s="3">
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>129</v>
+      <c r="D21" s="16" t="s">
+        <v>132</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>130</v>
+      <c r="E21" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>38</v>
+      <c r="G21" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H21" s="3">
         <v>30</v>
@@ -51921,40 +52613,46 @@
       <c r="M21" s="3">
         <v>8</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="16">
         <v>2</v>
       </c>
       <c r="O21" s="3">
         <v>2</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
-      <c r="Q21" s="6" t="s">
-        <v>132</v>
+      <c r="Q21" s="4" t="s">
+        <v>135</v>
       </c>
-      <c r="R21" s="6" t="s">
-        <v>133</v>
+      <c r="R21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1009</v>
+      </c>
+      <c r="U21" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="22" ht="42.75" spans="1:21">
       <c r="A22" s="3">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>135</v>
+      <c r="D22" s="16" t="s">
+        <v>138</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>136</v>
+      <c r="E22" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>38</v>
+      <c r="G22" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H22" s="3">
         <v>30</v>
@@ -51981,49 +52679,58 @@
         <v>2</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
-      <c r="Q22" s="6" t="s">
-        <v>138</v>
+      <c r="Q22" s="4" t="s">
+        <v>141</v>
       </c>
-      <c r="R22" s="6" t="s">
-        <v>139</v>
+      <c r="R22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="T22" s="3">
+        <v>60002</v>
+      </c>
+      <c r="U22" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50972222222222197" footer="0.50972222222222197"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50972222222222197" footer="0.50972222222222197"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50972222222222197" footer="0.50972222222222197"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>